--- a/template Excel/MKT/Campaigns.xlsx
+++ b/template Excel/MKT/Campaigns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\MKT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D27051-AB91-40CD-B415-EB8B65B49EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D65763E-7A4A-4717-B7BC-D2E418918989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="16440" xr2:uid="{98D6F9E8-4195-42C4-BFF8-7F65E9D23AC1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{98D6F9E8-4195-42C4-BFF8-7F65E9D23AC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,265 +38,265 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="87">
   <si>
+    <t>Marketer</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Impression</t>
+  </si>
+  <si>
+    <t>Reach</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t>Cmt</t>
+  </si>
+  <si>
+    <t>Inbox</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Summer Sale</t>
+  </si>
+  <si>
+    <t>BrandA</t>
+  </si>
+  <si>
+    <t>Youth</t>
+  </si>
+  <si>
+    <t>Annual summer campaign</t>
+  </si>
+  <si>
+    <t>Back2School</t>
+  </si>
+  <si>
+    <t>BrandB</t>
+  </si>
+  <si>
+    <t>Students</t>
+  </si>
+  <si>
+    <t>School supplies promo</t>
+  </si>
+  <si>
+    <t>Winter Deals</t>
+  </si>
+  <si>
+    <t>BrandC</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Winter sales discounts</t>
+  </si>
+  <si>
+    <t>Flash Sale</t>
+  </si>
+  <si>
+    <t>Adults</t>
+  </si>
+  <si>
+    <t>Limited-time offers</t>
+  </si>
+  <si>
+    <t>New Arrival</t>
+  </si>
+  <si>
+    <t>BrandD</t>
+  </si>
+  <si>
+    <t>Teenagers</t>
+  </si>
+  <si>
+    <t>New product launch</t>
+  </si>
+  <si>
+    <t>Spring Sale</t>
+  </si>
+  <si>
+    <t>BrandE</t>
+  </si>
+  <si>
+    <t>Families</t>
+  </si>
+  <si>
+    <t>Spring collection promo</t>
+  </si>
+  <si>
+    <t>Black Friday</t>
+  </si>
+  <si>
+    <t>BrandF</t>
+  </si>
+  <si>
+    <t>Biggest sale of the year</t>
+  </si>
+  <si>
+    <t>Cyber Monday</t>
+  </si>
+  <si>
+    <t>BrandG</t>
+  </si>
+  <si>
+    <t>Tech Savvy</t>
+  </si>
+  <si>
+    <t>Online shopping deals</t>
+  </si>
+  <si>
+    <t>Holiday Gifts</t>
+  </si>
+  <si>
+    <t>BrandH</t>
+  </si>
+  <si>
+    <t>Gift Shoppers</t>
+  </si>
+  <si>
+    <t>Festive season offers</t>
+  </si>
+  <si>
+    <t>Clearance</t>
+  </si>
+  <si>
+    <t>Budget Buyers</t>
+  </si>
+  <si>
+    <t>End of season clearance</t>
+  </si>
+  <si>
+    <t>Sports Event</t>
+  </si>
+  <si>
+    <t>BrandI</t>
+  </si>
+  <si>
+    <t>Athletes</t>
+  </si>
+  <si>
+    <t>Sports gear promotion</t>
+  </si>
+  <si>
+    <t>Fashion Week</t>
+  </si>
+  <si>
+    <t>BrandJ</t>
+  </si>
+  <si>
+    <t>Fashionistas</t>
+  </si>
+  <si>
+    <t>Fashion week campaign</t>
+  </si>
+  <si>
+    <t>Halloween</t>
+  </si>
+  <si>
+    <t>BrandK</t>
+  </si>
+  <si>
+    <t>Halloween specials</t>
+  </si>
+  <si>
+    <t>Valentine's</t>
+  </si>
+  <si>
+    <t>BrandL</t>
+  </si>
+  <si>
+    <t>Couples</t>
+  </si>
+  <si>
+    <t>Valentine's Day offers</t>
+  </si>
+  <si>
+    <t>Mother's Day</t>
+  </si>
+  <si>
+    <t>BrandM</t>
+  </si>
+  <si>
+    <t>Moms</t>
+  </si>
+  <si>
+    <t>Gifts for moms</t>
+  </si>
+  <si>
+    <t>Father's Day</t>
+  </si>
+  <si>
+    <t>BrandN</t>
+  </si>
+  <si>
+    <t>Dads</t>
+  </si>
+  <si>
+    <t>Gifts for dads</t>
+  </si>
+  <si>
+    <t>4th of July</t>
+  </si>
+  <si>
+    <t>BrandO</t>
+  </si>
+  <si>
+    <t>Independence Day deals</t>
+  </si>
+  <si>
+    <t>Easter Eggs</t>
+  </si>
+  <si>
+    <t>BrandP</t>
+  </si>
+  <si>
+    <t>Easter promotions</t>
+  </si>
+  <si>
+    <t>Summer Bash</t>
+  </si>
+  <si>
+    <t>BrandQ</t>
+  </si>
+  <si>
+    <t>Summer party deals</t>
+  </si>
+  <si>
+    <t>New Year</t>
+  </si>
+  <si>
+    <t>BrandR</t>
+  </si>
+  <si>
+    <t>New Year celebration</t>
+  </si>
+  <si>
     <t>CampaignId</t>
-  </si>
-  <si>
-    <t>Marketer</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>StartDate</t>
-  </si>
-  <si>
-    <t>EndDate</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Impression</t>
-  </si>
-  <si>
-    <t>Reach</t>
-  </si>
-  <si>
-    <t>Click</t>
-  </si>
-  <si>
-    <t>Share</t>
-  </si>
-  <si>
-    <t>Cmt</t>
-  </si>
-  <si>
-    <t>Inbox</t>
-  </si>
-  <si>
-    <t>Budget</t>
-  </si>
-  <si>
-    <t>Summer Sale</t>
-  </si>
-  <si>
-    <t>BrandA</t>
-  </si>
-  <si>
-    <t>Youth</t>
-  </si>
-  <si>
-    <t>Annual summer campaign</t>
-  </si>
-  <si>
-    <t>Back2School</t>
-  </si>
-  <si>
-    <t>BrandB</t>
-  </si>
-  <si>
-    <t>Students</t>
-  </si>
-  <si>
-    <t>School supplies promo</t>
-  </si>
-  <si>
-    <t>Winter Deals</t>
-  </si>
-  <si>
-    <t>BrandC</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>Winter sales discounts</t>
-  </si>
-  <si>
-    <t>Flash Sale</t>
-  </si>
-  <si>
-    <t>Adults</t>
-  </si>
-  <si>
-    <t>Limited-time offers</t>
-  </si>
-  <si>
-    <t>New Arrival</t>
-  </si>
-  <si>
-    <t>BrandD</t>
-  </si>
-  <si>
-    <t>Teenagers</t>
-  </si>
-  <si>
-    <t>New product launch</t>
-  </si>
-  <si>
-    <t>Spring Sale</t>
-  </si>
-  <si>
-    <t>BrandE</t>
-  </si>
-  <si>
-    <t>Families</t>
-  </si>
-  <si>
-    <t>Spring collection promo</t>
-  </si>
-  <si>
-    <t>Black Friday</t>
-  </si>
-  <si>
-    <t>BrandF</t>
-  </si>
-  <si>
-    <t>Biggest sale of the year</t>
-  </si>
-  <si>
-    <t>Cyber Monday</t>
-  </si>
-  <si>
-    <t>BrandG</t>
-  </si>
-  <si>
-    <t>Tech Savvy</t>
-  </si>
-  <si>
-    <t>Online shopping deals</t>
-  </si>
-  <si>
-    <t>Holiday Gifts</t>
-  </si>
-  <si>
-    <t>BrandH</t>
-  </si>
-  <si>
-    <t>Gift Shoppers</t>
-  </si>
-  <si>
-    <t>Festive season offers</t>
-  </si>
-  <si>
-    <t>Clearance</t>
-  </si>
-  <si>
-    <t>Budget Buyers</t>
-  </si>
-  <si>
-    <t>End of season clearance</t>
-  </si>
-  <si>
-    <t>Sports Event</t>
-  </si>
-  <si>
-    <t>BrandI</t>
-  </si>
-  <si>
-    <t>Athletes</t>
-  </si>
-  <si>
-    <t>Sports gear promotion</t>
-  </si>
-  <si>
-    <t>Fashion Week</t>
-  </si>
-  <si>
-    <t>BrandJ</t>
-  </si>
-  <si>
-    <t>Fashionistas</t>
-  </si>
-  <si>
-    <t>Fashion week campaign</t>
-  </si>
-  <si>
-    <t>Halloween</t>
-  </si>
-  <si>
-    <t>BrandK</t>
-  </si>
-  <si>
-    <t>Halloween specials</t>
-  </si>
-  <si>
-    <t>Valentine's</t>
-  </si>
-  <si>
-    <t>BrandL</t>
-  </si>
-  <si>
-    <t>Couples</t>
-  </si>
-  <si>
-    <t>Valentine's Day offers</t>
-  </si>
-  <si>
-    <t>Mother's Day</t>
-  </si>
-  <si>
-    <t>BrandM</t>
-  </si>
-  <si>
-    <t>Moms</t>
-  </si>
-  <si>
-    <t>Gifts for moms</t>
-  </si>
-  <si>
-    <t>Father's Day</t>
-  </si>
-  <si>
-    <t>BrandN</t>
-  </si>
-  <si>
-    <t>Dads</t>
-  </si>
-  <si>
-    <t>Gifts for dads</t>
-  </si>
-  <si>
-    <t>4th of July</t>
-  </si>
-  <si>
-    <t>BrandO</t>
-  </si>
-  <si>
-    <t>Independence Day deals</t>
-  </si>
-  <si>
-    <t>Easter Eggs</t>
-  </si>
-  <si>
-    <t>BrandP</t>
-  </si>
-  <si>
-    <t>Easter promotions</t>
-  </si>
-  <si>
-    <t>Summer Bash</t>
-  </si>
-  <si>
-    <t>BrandQ</t>
-  </si>
-  <si>
-    <t>Summer party deals</t>
-  </si>
-  <si>
-    <t>New Year</t>
-  </si>
-  <si>
-    <t>BrandR</t>
-  </si>
-  <si>
-    <t>New Year celebration</t>
   </si>
 </sst>
 </file>
@@ -677,7 +677,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,49 +700,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -753,13 +753,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="F2" s="2">
         <v>45444</v>
@@ -768,7 +768,7 @@
         <v>45473</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" s="1">
         <v>10000</v>
@@ -800,13 +800,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="F3" s="2">
         <v>45505</v>
@@ -815,7 +815,7 @@
         <v>45535</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1">
         <v>15000</v>
@@ -847,13 +847,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="F4" s="2">
         <v>45627</v>
@@ -862,7 +862,7 @@
         <v>45657</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I4" s="1">
         <v>20000</v>
@@ -894,13 +894,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="F5" s="2">
         <v>45488</v>
@@ -909,7 +909,7 @@
         <v>45493</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I5" s="1">
         <v>5000</v>
@@ -941,13 +941,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F6" s="2">
         <v>45536</v>
@@ -956,7 +956,7 @@
         <v>45565</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I6" s="1">
         <v>12000</v>
@@ -988,13 +988,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="F7" s="2">
         <v>45383</v>
@@ -1003,7 +1003,7 @@
         <v>45412</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I7" s="1">
         <v>13000</v>
@@ -1035,13 +1035,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2">
         <v>45621</v>
@@ -1050,7 +1050,7 @@
         <v>45625</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I8" s="1">
         <v>25000</v>
@@ -1082,13 +1082,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="F9" s="2">
         <v>45627</v>
@@ -1097,7 +1097,7 @@
         <v>45628</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I9" s="1">
         <v>18000</v>
@@ -1129,13 +1129,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="F10" s="2">
         <v>45636</v>
@@ -1144,7 +1144,7 @@
         <v>45651</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" s="1">
         <v>17000</v>
@@ -1176,13 +1176,13 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="F11" s="2">
         <v>45352</v>
@@ -1191,7 +1191,7 @@
         <v>45358</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I11" s="1">
         <v>7000</v>
@@ -1223,13 +1223,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="F12" s="2">
         <v>45413</v>
@@ -1238,7 +1238,7 @@
         <v>45443</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I12" s="1">
         <v>16000</v>
@@ -1270,13 +1270,13 @@
         <v>3</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="F13" s="2">
         <v>45332</v>
@@ -1285,7 +1285,7 @@
         <v>45338</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I13" s="1">
         <v>14000</v>
@@ -1317,13 +1317,13 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" s="2">
         <v>45580</v>
@@ -1332,7 +1332,7 @@
         <v>45596</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I14" s="1">
         <v>11000</v>
@@ -1364,13 +1364,13 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="F15" s="2">
         <v>45323</v>
@@ -1379,7 +1379,7 @@
         <v>45336</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I15" s="1">
         <v>9000</v>
@@ -1411,13 +1411,13 @@
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="F16" s="2">
         <v>45413</v>
@@ -1426,7 +1426,7 @@
         <v>45426</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I16" s="1">
         <v>10000</v>
@@ -1458,13 +1458,13 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="F17" s="2">
         <v>45444</v>
@@ -1473,7 +1473,7 @@
         <v>45464</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I17" s="1">
         <v>10500</v>
@@ -1505,13 +1505,13 @@
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F18" s="2">
         <v>45474</v>
@@ -1520,7 +1520,7 @@
         <v>45478</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I18" s="1">
         <v>13000</v>
@@ -1552,13 +1552,13 @@
         <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" s="2">
         <v>45392</v>
@@ -1567,7 +1567,7 @@
         <v>45402</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I19" s="1">
         <v>9000</v>
@@ -1599,13 +1599,13 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="2">
         <v>45458</v>
@@ -1614,7 +1614,7 @@
         <v>45468</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I20" s="1">
         <v>11000</v>
@@ -1646,13 +1646,13 @@
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F21" s="2">
         <v>45652</v>
@@ -1661,7 +1661,7 @@
         <v>45658</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I21" s="1">
         <v>20000</v>
